--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gnai2-Cav1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gnai2-Cav1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>195.435389</v>
+        <v>197.5433703333333</v>
       </c>
       <c r="H2">
-        <v>586.306167</v>
+        <v>592.6301109999999</v>
       </c>
       <c r="I2">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585983</v>
       </c>
       <c r="J2">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585982</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>821.2295326666666</v>
+        <v>670.6815796666667</v>
       </c>
       <c r="N2">
-        <v>2463.688598</v>
+        <v>2012.044739</v>
       </c>
       <c r="O2">
-        <v>0.8346340193176814</v>
+        <v>0.8096423760738445</v>
       </c>
       <c r="P2">
-        <v>0.8346340193176814</v>
+        <v>0.8096423760738443</v>
       </c>
       <c r="Q2">
-        <v>160497.3131749982</v>
+        <v>132488.6996678373</v>
       </c>
       <c r="R2">
-        <v>1444475.818574984</v>
+        <v>1192398.297010536</v>
       </c>
       <c r="S2">
-        <v>0.2583811366326359</v>
+        <v>0.274363816534085</v>
       </c>
       <c r="T2">
-        <v>0.258381136632636</v>
+        <v>0.2743638165340849</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>195.435389</v>
+        <v>197.5433703333333</v>
       </c>
       <c r="H3">
-        <v>586.306167</v>
+        <v>592.6301109999999</v>
       </c>
       <c r="I3">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585983</v>
       </c>
       <c r="J3">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585982</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>224.983445</v>
       </c>
       <c r="O3">
-        <v>0.07621857613528174</v>
+        <v>0.09053284325954498</v>
       </c>
       <c r="P3">
-        <v>0.07621857613528175</v>
+        <v>0.09053284325954496</v>
       </c>
       <c r="Q3">
-        <v>14656.57569737837</v>
+        <v>14814.66266483471</v>
       </c>
       <c r="R3">
-        <v>131909.1812764053</v>
+        <v>133331.9639835124</v>
       </c>
       <c r="S3">
-        <v>0.02359530270579518</v>
+        <v>0.03067889865006943</v>
       </c>
       <c r="T3">
-        <v>0.02359530270579518</v>
+        <v>0.03067889865006941</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>195.435389</v>
+        <v>197.5433703333333</v>
       </c>
       <c r="H4">
-        <v>586.306167</v>
+        <v>592.6301109999999</v>
       </c>
       <c r="I4">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585983</v>
       </c>
       <c r="J4">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585982</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>4.06922</v>
+        <v>1.114203333333333</v>
       </c>
       <c r="N4">
-        <v>12.20766</v>
+        <v>3.34261</v>
       </c>
       <c r="O4">
-        <v>0.004135639682927041</v>
+        <v>0.001345058909591271</v>
       </c>
       <c r="P4">
-        <v>0.004135639682927041</v>
+        <v>0.00134505890959127</v>
       </c>
       <c r="Q4">
-        <v>795.2695936265799</v>
+        <v>220.1034817033011</v>
       </c>
       <c r="R4">
-        <v>7157.426342639219</v>
+        <v>1980.93133532971</v>
       </c>
       <c r="S4">
-        <v>0.001280287236376114</v>
+        <v>0.000455800618648668</v>
       </c>
       <c r="T4">
-        <v>0.001280287236376115</v>
+        <v>0.0004558006186486678</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>195.435389</v>
+        <v>197.5433703333333</v>
       </c>
       <c r="H5">
-        <v>586.306167</v>
+        <v>592.6301109999999</v>
       </c>
       <c r="I5">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585983</v>
       </c>
       <c r="J5">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585982</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>82.85448733333332</v>
+        <v>80.40286633333334</v>
       </c>
       <c r="N5">
-        <v>248.563462</v>
+        <v>241.208599</v>
       </c>
       <c r="O5">
-        <v>0.08420687643438035</v>
+        <v>0.09706180953056985</v>
       </c>
       <c r="P5">
-        <v>0.08420687643438036</v>
+        <v>0.09706180953056984</v>
       </c>
       <c r="Q5">
-        <v>16192.69896238557</v>
+        <v>15883.05319994716</v>
       </c>
       <c r="R5">
-        <v>145734.2906614701</v>
+        <v>142947.4787995245</v>
       </c>
       <c r="S5">
-        <v>0.0260682741678634</v>
+        <v>0.03289137190625843</v>
       </c>
       <c r="T5">
-        <v>0.02606827416786341</v>
+        <v>0.03289137190625841</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>195.435389</v>
+        <v>197.5433703333333</v>
       </c>
       <c r="H6">
-        <v>586.306167</v>
+        <v>592.6301109999999</v>
       </c>
       <c r="I6">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585983</v>
       </c>
       <c r="J6">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585982</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.7919616666666666</v>
+        <v>1.174552666666667</v>
       </c>
       <c r="N6">
-        <v>2.375885</v>
+        <v>3.523658</v>
       </c>
       <c r="O6">
-        <v>0.0008048884297294578</v>
+        <v>0.001417912226449558</v>
       </c>
       <c r="P6">
-        <v>0.0008048884297294579</v>
+        <v>0.001417912226449558</v>
       </c>
       <c r="Q6">
-        <v>154.7773363980883</v>
+        <v>232.0250924073376</v>
       </c>
       <c r="R6">
-        <v>1392.996027582795</v>
+        <v>2088.225831666038</v>
       </c>
       <c r="S6">
-        <v>0.0002491726703231794</v>
+        <v>0.0004804884495368374</v>
       </c>
       <c r="T6">
-        <v>0.0002491726703231795</v>
+        <v>0.0004804884495368372</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>239.481758</v>
       </c>
       <c r="I7">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620155</v>
       </c>
       <c r="J7">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620154</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>821.2295326666666</v>
+        <v>670.6815796666667</v>
       </c>
       <c r="N7">
-        <v>2463.688598</v>
+        <v>2012.044739</v>
       </c>
       <c r="O7">
-        <v>0.8346340193176814</v>
+        <v>0.8096423760738445</v>
       </c>
       <c r="P7">
-        <v>0.8346340193176814</v>
+        <v>0.8096423760738443</v>
       </c>
       <c r="Q7">
-        <v>65556.49740151058</v>
+        <v>53538.66791893014</v>
       </c>
       <c r="R7">
-        <v>590008.4766135952</v>
+        <v>481848.0112703711</v>
       </c>
       <c r="S7">
-        <v>0.105537980525492</v>
+        <v>0.1108703859213325</v>
       </c>
       <c r="T7">
-        <v>0.105537980525492</v>
+        <v>0.1108703859213325</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>239.481758</v>
       </c>
       <c r="I8">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620155</v>
       </c>
       <c r="J8">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620154</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>224.983445</v>
       </c>
       <c r="O8">
-        <v>0.07621857613528174</v>
+        <v>0.09053284325954498</v>
       </c>
       <c r="P8">
-        <v>0.07621857613528175</v>
+        <v>0.09053284325954496</v>
       </c>
       <c r="Q8">
         <v>5986.603436610701</v>
@@ -948,10 +948,10 @@
         <v>53879.43092949631</v>
       </c>
       <c r="S8">
-        <v>0.009637702774710856</v>
+        <v>0.01239733932827867</v>
       </c>
       <c r="T8">
-        <v>0.009637702774710859</v>
+        <v>0.01239733932827866</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>239.481758</v>
       </c>
       <c r="I9">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620155</v>
       </c>
       <c r="J9">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620154</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>4.06922</v>
+        <v>1.114203333333333</v>
       </c>
       <c r="N9">
-        <v>12.20766</v>
+        <v>3.34261</v>
       </c>
       <c r="O9">
-        <v>0.004135639682927041</v>
+        <v>0.001345058909591271</v>
       </c>
       <c r="P9">
-        <v>0.004135639682927041</v>
+        <v>0.00134505890959127</v>
       </c>
       <c r="Q9">
-        <v>324.8346530962533</v>
+        <v>88.94379101204223</v>
       </c>
       <c r="R9">
-        <v>2923.51187786628</v>
+        <v>800.49411910838</v>
       </c>
       <c r="S9">
-        <v>0.0005229442488745192</v>
+        <v>0.000184188976269332</v>
       </c>
       <c r="T9">
-        <v>0.0005229442488745193</v>
+        <v>0.0001841889762693319</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>239.481758</v>
       </c>
       <c r="I10">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620155</v>
       </c>
       <c r="J10">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620154</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>82.85448733333332</v>
+        <v>80.40286633333334</v>
       </c>
       <c r="N10">
-        <v>248.563462</v>
+        <v>241.208599</v>
       </c>
       <c r="O10">
-        <v>0.08420687643438035</v>
+        <v>0.09706180953056985</v>
       </c>
       <c r="P10">
-        <v>0.08420687643438036</v>
+        <v>0.09706180953056984</v>
       </c>
       <c r="Q10">
-        <v>6614.046094925132</v>
+        <v>6418.339925915227</v>
       </c>
       <c r="R10">
-        <v>59526.41485432619</v>
+        <v>57765.05933323704</v>
       </c>
       <c r="S10">
-        <v>0.01064780907505944</v>
+        <v>0.01329139951031374</v>
       </c>
       <c r="T10">
-        <v>0.01064780907505944</v>
+        <v>0.01329139951031374</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>239.481758</v>
       </c>
       <c r="I11">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620155</v>
       </c>
       <c r="J11">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620154</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.7919616666666666</v>
+        <v>1.174552666666667</v>
       </c>
       <c r="N11">
-        <v>2.375885</v>
+        <v>3.523658</v>
       </c>
       <c r="O11">
-        <v>0.0008048884297294578</v>
+        <v>0.001417912226449558</v>
       </c>
       <c r="P11">
-        <v>0.0008048884297294579</v>
+        <v>0.001417912226449558</v>
       </c>
       <c r="Q11">
-        <v>63.22012406731444</v>
+        <v>93.76131249230713</v>
       </c>
       <c r="R11">
-        <v>568.9811166058299</v>
+        <v>843.851812430764</v>
       </c>
       <c r="S11">
-        <v>0.000101776703867673</v>
+        <v>0.0001941653258212122</v>
       </c>
       <c r="T11">
-        <v>0.000101776703867673</v>
+        <v>0.000194165325821212</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>162.5116576666667</v>
+        <v>148.824417</v>
       </c>
       <c r="H12">
-        <v>487.534973</v>
+        <v>446.473251</v>
       </c>
       <c r="I12">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="J12">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>821.2295326666666</v>
+        <v>670.6815796666667</v>
       </c>
       <c r="N12">
-        <v>2463.688598</v>
+        <v>2012.044739</v>
       </c>
       <c r="O12">
-        <v>0.8346340193176814</v>
+        <v>0.8096423760738445</v>
       </c>
       <c r="P12">
-        <v>0.8346340193176814</v>
+        <v>0.8096423760738443</v>
       </c>
       <c r="Q12">
-        <v>133459.372678482</v>
+        <v>99813.79508653074</v>
       </c>
       <c r="R12">
-        <v>1201134.354106338</v>
+        <v>898324.1557787766</v>
       </c>
       <c r="S12">
-        <v>0.2148533438023712</v>
+        <v>0.2066990908005693</v>
       </c>
       <c r="T12">
-        <v>0.2148533438023713</v>
+        <v>0.2066990908005693</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>162.5116576666667</v>
+        <v>148.824417</v>
       </c>
       <c r="H13">
-        <v>487.534973</v>
+        <v>446.473251</v>
       </c>
       <c r="I13">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="J13">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>224.983445</v>
       </c>
       <c r="O13">
-        <v>0.07621857613528174</v>
+        <v>0.09053284325954498</v>
       </c>
       <c r="P13">
-        <v>0.07621857613528175</v>
+        <v>0.09053284325954496</v>
       </c>
       <c r="Q13">
-        <v>12187.47753150245</v>
+        <v>11161.01001225886</v>
       </c>
       <c r="R13">
-        <v>109687.297783522</v>
+        <v>100449.0901103297</v>
       </c>
       <c r="S13">
-        <v>0.01962035522576497</v>
+        <v>0.02311274328313029</v>
       </c>
       <c r="T13">
-        <v>0.01962035522576498</v>
+        <v>0.02311274328313028</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>162.5116576666667</v>
+        <v>148.824417</v>
       </c>
       <c r="H14">
-        <v>487.534973</v>
+        <v>446.473251</v>
       </c>
       <c r="I14">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="J14">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>4.06922</v>
+        <v>1.114203333333333</v>
       </c>
       <c r="N14">
-        <v>12.20766</v>
+        <v>3.34261</v>
       </c>
       <c r="O14">
-        <v>0.004135639682927041</v>
+        <v>0.001345058909591271</v>
       </c>
       <c r="P14">
-        <v>0.004135639682927041</v>
+        <v>0.00134505890959127</v>
       </c>
       <c r="Q14">
-        <v>661.2956876103533</v>
+        <v>165.82066150279</v>
       </c>
       <c r="R14">
-        <v>5951.66118849318</v>
+        <v>1492.38595352511</v>
       </c>
       <c r="S14">
-        <v>0.001064605556534891</v>
+        <v>0.0003433892072620017</v>
       </c>
       <c r="T14">
-        <v>0.001064605556534891</v>
+        <v>0.0003433892072620015</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>162.5116576666667</v>
+        <v>148.824417</v>
       </c>
       <c r="H15">
-        <v>487.534973</v>
+        <v>446.473251</v>
       </c>
       <c r="I15">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="J15">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>82.85448733333332</v>
+        <v>80.40286633333334</v>
       </c>
       <c r="N15">
-        <v>248.563462</v>
+        <v>241.208599</v>
       </c>
       <c r="O15">
-        <v>0.08420687643438035</v>
+        <v>0.09706180953056985</v>
       </c>
       <c r="P15">
-        <v>0.08420687643438036</v>
+        <v>0.09706180953056984</v>
       </c>
       <c r="Q15">
-        <v>13464.82008166184</v>
+        <v>11965.90970718726</v>
       </c>
       <c r="R15">
-        <v>121183.3807349565</v>
+        <v>107693.1873646854</v>
       </c>
       <c r="S15">
-        <v>0.02167672123869351</v>
+        <v>0.02477956734270167</v>
       </c>
       <c r="T15">
-        <v>0.02167672123869352</v>
+        <v>0.02477956734270167</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>162.5116576666667</v>
+        <v>148.824417</v>
       </c>
       <c r="H16">
-        <v>487.534973</v>
+        <v>446.473251</v>
       </c>
       <c r="I16">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="J16">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.7919616666666666</v>
+        <v>1.174552666666667</v>
       </c>
       <c r="N16">
-        <v>2.375885</v>
+        <v>3.523658</v>
       </c>
       <c r="O16">
-        <v>0.0008048884297294578</v>
+        <v>0.001417912226449558</v>
       </c>
       <c r="P16">
-        <v>0.0008048884297294579</v>
+        <v>0.001417912226449558</v>
       </c>
       <c r="Q16">
-        <v>128.7030032584561</v>
+        <v>174.802115852462</v>
       </c>
       <c r="R16">
-        <v>1158.327029326105</v>
+        <v>1573.219042672158</v>
       </c>
       <c r="S16">
-        <v>0.0002071961680361264</v>
+        <v>0.0003619884243996189</v>
       </c>
       <c r="T16">
-        <v>0.0002071961680361265</v>
+        <v>0.0003619884243996188</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>33.73857866666668</v>
+        <v>35.426853</v>
       </c>
       <c r="H17">
-        <v>101.215736</v>
+        <v>106.280559</v>
       </c>
       <c r="I17">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121193</v>
       </c>
       <c r="J17">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121192</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>821.2295326666666</v>
+        <v>670.6815796666667</v>
       </c>
       <c r="N17">
-        <v>2463.688598</v>
+        <v>2012.044739</v>
       </c>
       <c r="O17">
-        <v>0.8346340193176814</v>
+        <v>0.8096423760738445</v>
       </c>
       <c r="P17">
-        <v>0.8346340193176814</v>
+        <v>0.8096423760738443</v>
       </c>
       <c r="Q17">
-        <v>27707.11719126424</v>
+        <v>23760.13773265879</v>
       </c>
       <c r="R17">
-        <v>249364.0547213781</v>
+        <v>213841.2395939291</v>
       </c>
       <c r="S17">
-        <v>0.04460508584892442</v>
+        <v>0.04920360820244585</v>
       </c>
       <c r="T17">
-        <v>0.04460508584892442</v>
+        <v>0.04920360820244583</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>33.73857866666668</v>
+        <v>35.426853</v>
       </c>
       <c r="H18">
-        <v>101.215736</v>
+        <v>106.280559</v>
       </c>
       <c r="I18">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121193</v>
       </c>
       <c r="J18">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121192</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>224.983445</v>
       </c>
       <c r="O18">
-        <v>0.07621857613528174</v>
+        <v>0.09053284325954498</v>
       </c>
       <c r="P18">
-        <v>0.07621857613528175</v>
+        <v>0.09053284325954496</v>
       </c>
       <c r="Q18">
-        <v>2530.207219276725</v>
+        <v>2656.818477816195</v>
       </c>
       <c r="R18">
-        <v>22771.86497349053</v>
+        <v>23911.36630034576</v>
       </c>
       <c r="S18">
-        <v>0.004073325617108598</v>
+        <v>0.005501864379674972</v>
       </c>
       <c r="T18">
-        <v>0.004073325617108598</v>
+        <v>0.005501864379674969</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>33.73857866666668</v>
+        <v>35.426853</v>
       </c>
       <c r="H19">
-        <v>101.215736</v>
+        <v>106.280559</v>
       </c>
       <c r="I19">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121193</v>
       </c>
       <c r="J19">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121192</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>4.06922</v>
+        <v>1.114203333333333</v>
       </c>
       <c r="N19">
-        <v>12.20766</v>
+        <v>3.34261</v>
       </c>
       <c r="O19">
-        <v>0.004135639682927041</v>
+        <v>0.001345058909591271</v>
       </c>
       <c r="P19">
-        <v>0.004135639682927041</v>
+        <v>0.00134505890959127</v>
       </c>
       <c r="Q19">
-        <v>137.2896990819734</v>
+        <v>39.47271770211</v>
       </c>
       <c r="R19">
-        <v>1235.60729173776</v>
+        <v>355.25445931899</v>
       </c>
       <c r="S19">
-        <v>0.0002210197030406034</v>
+        <v>8.174195614324137E-05</v>
       </c>
       <c r="T19">
-        <v>0.0002210197030406034</v>
+        <v>8.174195614324134E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>33.73857866666668</v>
+        <v>35.426853</v>
       </c>
       <c r="H20">
-        <v>101.215736</v>
+        <v>106.280559</v>
       </c>
       <c r="I20">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121193</v>
       </c>
       <c r="J20">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121192</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>82.85448733333332</v>
+        <v>80.40286633333334</v>
       </c>
       <c r="N20">
-        <v>248.563462</v>
+        <v>241.208599</v>
       </c>
       <c r="O20">
-        <v>0.08420687643438035</v>
+        <v>0.09706180953056985</v>
       </c>
       <c r="P20">
-        <v>0.08420687643438036</v>
+        <v>0.09706180953056984</v>
       </c>
       <c r="Q20">
-        <v>2795.392638782004</v>
+        <v>2848.420526369649</v>
       </c>
       <c r="R20">
-        <v>25158.53374903804</v>
+        <v>25635.78473732684</v>
       </c>
       <c r="S20">
-        <v>0.004500241861092488</v>
+        <v>0.005898642893077772</v>
       </c>
       <c r="T20">
-        <v>0.004500241861092488</v>
+        <v>0.005898642893077771</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>33.73857866666668</v>
+        <v>35.426853</v>
       </c>
       <c r="H21">
-        <v>101.215736</v>
+        <v>106.280559</v>
       </c>
       <c r="I21">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121193</v>
       </c>
       <c r="J21">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121192</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.7919616666666666</v>
+        <v>1.174552666666667</v>
       </c>
       <c r="N21">
-        <v>2.375885</v>
+        <v>3.523658</v>
       </c>
       <c r="O21">
-        <v>0.0008048884297294578</v>
+        <v>0.001417912226449558</v>
       </c>
       <c r="P21">
-        <v>0.0008048884297294579</v>
+        <v>0.001417912226449558</v>
       </c>
       <c r="Q21">
-        <v>26.71966099181778</v>
+        <v>41.610704662758</v>
       </c>
       <c r="R21">
-        <v>240.47694892636</v>
+        <v>374.496341964822</v>
       </c>
       <c r="S21">
-        <v>4.301540157234261E-05</v>
+        <v>8.6169399870096E-05</v>
       </c>
       <c r="T21">
-        <v>4.301540157234262E-05</v>
+        <v>8.616939987009597E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>159.7910413333333</v>
+        <v>121.3248153333333</v>
       </c>
       <c r="H22">
-        <v>479.373124</v>
+        <v>363.974446</v>
       </c>
       <c r="I22">
-        <v>0.2531127028358625</v>
+        <v>0.2081233388901116</v>
       </c>
       <c r="J22">
-        <v>0.2531127028358626</v>
+        <v>0.2081233388901115</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>821.2295326666666</v>
+        <v>670.6815796666667</v>
       </c>
       <c r="N22">
-        <v>2463.688598</v>
+        <v>2012.044739</v>
       </c>
       <c r="O22">
-        <v>0.8346340193176814</v>
+        <v>0.8096423760738445</v>
       </c>
       <c r="P22">
-        <v>0.8346340193176814</v>
+        <v>0.8096423760738443</v>
       </c>
       <c r="Q22">
-        <v>131225.1221984933</v>
+        <v>81370.31880052663</v>
       </c>
       <c r="R22">
-        <v>1181026.09978644</v>
+        <v>732332.8692047397</v>
       </c>
       <c r="S22">
-        <v>0.2112564725082578</v>
+        <v>0.1685054746154119</v>
       </c>
       <c r="T22">
-        <v>0.2112564725082579</v>
+        <v>0.1685054746154118</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>159.7910413333333</v>
+        <v>121.3248153333333</v>
       </c>
       <c r="H23">
-        <v>479.373124</v>
+        <v>363.974446</v>
       </c>
       <c r="I23">
-        <v>0.2531127028358625</v>
+        <v>0.2081233388901116</v>
       </c>
       <c r="J23">
-        <v>0.2531127028358626</v>
+        <v>0.2081233388901115</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>224.983445</v>
       </c>
       <c r="O23">
-        <v>0.07621857613528174</v>
+        <v>0.09053284325954498</v>
       </c>
       <c r="P23">
-        <v>0.07621857613528175</v>
+        <v>0.09053284325954496</v>
       </c>
       <c r="Q23">
-        <v>11983.44631977024</v>
+        <v>9098.691639227387</v>
       </c>
       <c r="R23">
-        <v>107851.0168779322</v>
+        <v>81888.22475304648</v>
       </c>
       <c r="S23">
-        <v>0.01929188981190213</v>
+        <v>0.01884199761839163</v>
       </c>
       <c r="T23">
-        <v>0.01929188981190214</v>
+        <v>0.01884199761839163</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,46 +1904,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>159.7910413333333</v>
+        <v>121.3248153333333</v>
       </c>
       <c r="H24">
-        <v>479.373124</v>
+        <v>363.974446</v>
       </c>
       <c r="I24">
-        <v>0.2531127028358625</v>
+        <v>0.2081233388901116</v>
       </c>
       <c r="J24">
-        <v>0.2531127028358626</v>
+        <v>0.2081233388901115</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>4.06922</v>
+        <v>1.114203333333333</v>
       </c>
       <c r="N24">
-        <v>12.20766</v>
+        <v>3.34261</v>
       </c>
       <c r="O24">
-        <v>0.004135639682927041</v>
+        <v>0.001345058909591271</v>
       </c>
       <c r="P24">
-        <v>0.004135639682927041</v>
+        <v>0.00134505890959127</v>
       </c>
       <c r="Q24">
-        <v>650.2249012144266</v>
+        <v>135.1805136604511</v>
       </c>
       <c r="R24">
-        <v>5852.024110929839</v>
+        <v>1216.62462294406</v>
       </c>
       <c r="S24">
-        <v>0.001046782938100913</v>
+        <v>0.000279938151268028</v>
       </c>
       <c r="T24">
-        <v>0.001046782938100913</v>
+        <v>0.0002799381512680279</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>159.7910413333333</v>
+        <v>121.3248153333333</v>
       </c>
       <c r="H25">
-        <v>479.373124</v>
+        <v>363.974446</v>
       </c>
       <c r="I25">
-        <v>0.2531127028358625</v>
+        <v>0.2081233388901116</v>
       </c>
       <c r="J25">
-        <v>0.2531127028358626</v>
+        <v>0.2081233388901115</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>82.85448733333332</v>
+        <v>80.40286633333334</v>
       </c>
       <c r="N25">
-        <v>248.563462</v>
+        <v>241.208599</v>
       </c>
       <c r="O25">
-        <v>0.08420687643438035</v>
+        <v>0.09706180953056985</v>
       </c>
       <c r="P25">
-        <v>0.08420687643438036</v>
+        <v>0.09706180953056984</v>
       </c>
       <c r="Q25">
-        <v>13239.40481013281</v>
+        <v>9754.86291016235</v>
       </c>
       <c r="R25">
-        <v>119154.6432911953</v>
+        <v>87793.76619146117</v>
       </c>
       <c r="S25">
-        <v>0.02131383009167151</v>
+        <v>0.02020082787821825</v>
       </c>
       <c r="T25">
-        <v>0.02131383009167152</v>
+        <v>0.02020082787821824</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>159.7910413333333</v>
+        <v>121.3248153333333</v>
       </c>
       <c r="H26">
-        <v>479.373124</v>
+        <v>363.974446</v>
       </c>
       <c r="I26">
-        <v>0.2531127028358625</v>
+        <v>0.2081233388901116</v>
       </c>
       <c r="J26">
-        <v>0.2531127028358626</v>
+        <v>0.2081233388901115</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.7919616666666666</v>
+        <v>1.174552666666667</v>
       </c>
       <c r="N26">
-        <v>2.375885</v>
+        <v>3.523658</v>
       </c>
       <c r="O26">
-        <v>0.0008048884297294578</v>
+        <v>0.001417912226449558</v>
       </c>
       <c r="P26">
-        <v>0.0008048884297294579</v>
+        <v>0.001417912226449558</v>
       </c>
       <c r="Q26">
-        <v>126.5483794127489</v>
+        <v>142.5023853826076</v>
       </c>
       <c r="R26">
-        <v>1138.93541471474</v>
+        <v>1282.521468443468</v>
       </c>
       <c r="S26">
-        <v>0.0002037274859301363</v>
+        <v>0.000295100626821794</v>
       </c>
       <c r="T26">
-        <v>0.0002037274859301363</v>
+        <v>0.0002951006268217939</v>
       </c>
     </row>
   </sheetData>
